--- a/software/oled_cmd_seq.xlsx
+++ b/software/oled_cmd_seq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pig\Documents\GitHub\pcb_radio\software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E1D27-89A8-4654-91C7-C014664C6478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBBA175-629E-41FE-A403-EDE7C4847EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{876B800D-1A15-479A-B676-B9487F8661B5}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{876B800D-1A15-479A-B676-B9487F8661B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E03BAE-71A8-4C20-9556-9693FBCB0D10}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
